--- a/data/financial_statements/soci/MNST.xlsx
+++ b/data/financial_statements/soci/MNST.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,144 +598,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1624000000</v>
+        <v>1624286000</v>
       </c>
       <c r="C2">
-        <v>1655000000</v>
+        <v>1655260000</v>
       </c>
       <c r="D2">
-        <v>1519000000</v>
+        <v>1518574000</v>
       </c>
       <c r="E2">
-        <v>1425000000</v>
+        <v>1425045000</v>
       </c>
       <c r="F2">
-        <v>1411000000</v>
+        <v>1410557000</v>
       </c>
       <c r="G2">
         <v>1461934000</v>
@@ -730,23 +841,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.151</v>
+        <v>0.1515</v>
       </c>
       <c r="C3">
-        <v>0.1321</v>
+        <v>0.1322</v>
       </c>
       <c r="D3">
-        <v>0.2212</v>
+        <v>0.2209</v>
       </c>
       <c r="E3">
         <v>0.1912</v>
       </c>
       <c r="F3">
-        <v>0.1321</v>
+        <v>0.1317</v>
       </c>
       <c r="G3">
         <v>0.3364</v>
@@ -852,23 +963,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>791000000</v>
+        <v>790561000</v>
       </c>
       <c r="C4">
-        <v>875000000</v>
+        <v>875399000</v>
       </c>
       <c r="D4">
-        <v>757000000</v>
+        <v>741907000</v>
       </c>
       <c r="E4">
-        <v>657000000</v>
+        <v>657463300</v>
       </c>
       <c r="F4">
-        <v>621000000</v>
+        <v>621399000</v>
       </c>
       <c r="G4">
         <v>625096000</v>
@@ -974,23 +1085,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>834000000</v>
+        <v>833725000</v>
       </c>
       <c r="C5">
-        <v>780000000</v>
+        <v>779861000</v>
       </c>
       <c r="D5">
-        <v>762000000</v>
+        <v>776667000</v>
       </c>
       <c r="E5">
-        <v>768000000</v>
+        <v>767581500</v>
       </c>
       <c r="F5">
-        <v>789000000</v>
+        <v>789158000</v>
       </c>
       <c r="G5">
         <v>836838000</v>
@@ -1096,8 +1207,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>415795000</v>
@@ -1112,7 +1223,7 @@
         <v>354700000</v>
       </c>
       <c r="F6">
-        <v>345000000</v>
+        <v>344694000</v>
       </c>
       <c r="G6">
         <v>310863000</v>
@@ -1218,8 +1329,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>417930100</v>
@@ -1340,8 +1451,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C8">
         <v>7000000</v>
@@ -1351,8 +1462,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>10000000</v>
@@ -1413,23 +1524,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-17000000</v>
+        <v>2149000</v>
       </c>
       <c r="C10">
-        <v>-12000000</v>
+        <v>-6781000</v>
       </c>
       <c r="D10">
-        <v>-2000000</v>
+        <v>-7300000</v>
       </c>
       <c r="E10">
-        <v>5000000</v>
+        <v>6129000</v>
       </c>
       <c r="F10">
-        <v>-3000000</v>
+        <v>-2290000</v>
       </c>
       <c r="G10">
         <v>872000</v>
@@ -1535,23 +1646,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>420000000</v>
+        <v>420079000</v>
       </c>
       <c r="C11">
-        <v>366000000</v>
+        <v>366170000</v>
       </c>
       <c r="D11">
-        <v>392000000</v>
+        <v>392189000</v>
       </c>
       <c r="E11">
-        <v>419000000</v>
+        <v>419010900</v>
       </c>
       <c r="F11">
-        <v>442000000</v>
+        <v>442174000</v>
       </c>
       <c r="G11">
         <v>526847000</v>
@@ -1657,23 +1768,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>98000000</v>
+        <v>97692000</v>
       </c>
       <c r="C12">
-        <v>93000000</v>
+        <v>92810000</v>
       </c>
       <c r="D12">
-        <v>98000000</v>
+        <v>97986000</v>
       </c>
       <c r="E12">
-        <v>98000000</v>
+        <v>97697000</v>
       </c>
       <c r="F12">
-        <v>105000000</v>
+        <v>104969000</v>
       </c>
       <c r="G12">
         <v>123085000</v>
@@ -1779,8 +1890,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>322387000</v>
@@ -1901,8 +2012,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1963,23 +2074,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>322000000</v>
+        <v>322387000</v>
       </c>
       <c r="C15">
-        <v>273000000</v>
+        <v>273360000</v>
       </c>
       <c r="D15">
-        <v>294000000</v>
+        <v>294203000</v>
       </c>
       <c r="E15">
-        <v>321000000</v>
+        <v>321314100</v>
       </c>
       <c r="F15">
-        <v>337000000</v>
+        <v>337205000</v>
       </c>
       <c r="G15">
         <v>403762000</v>
@@ -2085,23 +2196,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="C16">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="D16">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E16">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="F16">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="G16">
         <v>0.76</v>
@@ -2207,8 +2318,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0.6</v>
@@ -2329,23 +2440,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>527000000</v>
+        <v>526797000</v>
       </c>
       <c r="C18">
-        <v>529000000</v>
+        <v>528617000</v>
       </c>
       <c r="D18">
-        <v>529000000</v>
+        <v>529405000</v>
       </c>
       <c r="E18">
-        <v>529000000</v>
+        <v>528763000</v>
       </c>
       <c r="F18">
-        <v>529000000</v>
+        <v>528997000</v>
       </c>
       <c r="G18">
         <v>528653000</v>
@@ -2451,23 +2562,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>533000000</v>
+        <v>533300000</v>
       </c>
       <c r="C19">
-        <v>535000000</v>
+        <v>534811000</v>
       </c>
       <c r="D19">
-        <v>536000000</v>
+        <v>535554000</v>
       </c>
       <c r="E19">
-        <v>536000000</v>
+        <v>535639000</v>
       </c>
       <c r="F19">
-        <v>536000000</v>
+        <v>535915000</v>
       </c>
       <c r="G19">
         <v>535557000</v>
@@ -2573,23 +2684,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.5135</v>
+        <v>0.5133</v>
       </c>
       <c r="C20">
-        <v>0.4713</v>
+        <v>0.4711</v>
       </c>
       <c r="D20">
-        <v>0.5016</v>
+        <v>0.5114</v>
       </c>
       <c r="E20">
-        <v>0.5389</v>
+        <v>0.5386</v>
       </c>
       <c r="F20">
-        <v>0.5592</v>
+        <v>0.5595</v>
       </c>
       <c r="G20">
         <v>0.5724</v>
@@ -2695,8 +2806,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.2573</v>
@@ -2705,13 +2816,13 @@
         <v>0.2253</v>
       </c>
       <c r="D21">
-        <v>0.263</v>
+        <v>0.2631</v>
       </c>
       <c r="E21">
         <v>0.2897</v>
       </c>
       <c r="F21">
-        <v>0.315</v>
+        <v>0.3151</v>
       </c>
       <c r="G21">
         <v>0.3598</v>
@@ -2817,23 +2928,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.2586</v>
       </c>
       <c r="C22">
-        <v>0.2211</v>
+        <v>0.2212</v>
       </c>
       <c r="D22">
-        <v>0.2581</v>
+        <v>0.2583</v>
       </c>
       <c r="E22">
         <v>0.294</v>
       </c>
       <c r="F22">
-        <v>0.3133</v>
+        <v>0.3135</v>
       </c>
       <c r="G22">
         <v>0.3604</v>
@@ -2939,23 +3050,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.1983</v>
+        <v>0.1985</v>
       </c>
       <c r="C23">
-        <v>0.165</v>
+        <v>0.1651</v>
       </c>
       <c r="D23">
-        <v>0.1935</v>
+        <v>0.1937</v>
       </c>
       <c r="E23">
-        <v>0.2253</v>
+        <v>0.2255</v>
       </c>
       <c r="F23">
-        <v>0.2388</v>
+        <v>0.2391</v>
       </c>
       <c r="G23">
         <v>0.2762</v>
@@ -3061,23 +3172,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>435000000</v>
+        <v>433538100</v>
       </c>
       <c r="C24">
-        <v>391000000</v>
+        <v>388784100</v>
       </c>
       <c r="D24">
-        <v>399000000</v>
+        <v>414088000</v>
       </c>
       <c r="E24">
-        <v>425000000</v>
+        <v>425182500</v>
       </c>
       <c r="F24">
-        <v>457000000</v>
+        <v>456819000</v>
       </c>
       <c r="G24">
         <v>538649000</v>
@@ -3183,8 +3294,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>417930100</v>
@@ -3305,8 +3416,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>322387000</v>
@@ -3427,23 +3538,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>322000000</v>
+        <v>322387000</v>
       </c>
       <c r="C27">
-        <v>273000000</v>
+        <v>273360000</v>
       </c>
       <c r="D27">
-        <v>294000000</v>
+        <v>294203000</v>
       </c>
       <c r="E27">
-        <v>321000000</v>
+        <v>321314100</v>
       </c>
       <c r="F27">
-        <v>337000000</v>
+        <v>337205000</v>
       </c>
       <c r="G27">
         <v>403762000</v>
@@ -3549,8 +3660,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0.612</v>
@@ -3671,8 +3782,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0.6045</v>
@@ -3793,8 +3904,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.612</v>
@@ -3915,8 +4026,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.6045</v>
@@ -4037,8 +4148,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>533300000</v>
@@ -4159,20 +4270,20 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>0.2679</v>
+        <v>0.2669</v>
       </c>
       <c r="C33">
-        <v>0.2363</v>
+        <v>0.2349</v>
       </c>
       <c r="D33">
-        <v>0.2627</v>
+        <v>0.2727</v>
       </c>
       <c r="E33">
-        <v>0.2982</v>
+        <v>0.2984</v>
       </c>
       <c r="F33">
         <v>0.3239</v>
@@ -4281,8 +4392,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>0.2823</v>
